--- a/com.AutomationFramework/src/test/resources/TestData.xlsx
+++ b/com.AutomationFramework/src/test/resources/TestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\QWA_SJFJVD-M2-Repository\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7798DF-2DE8-424A-A91D-53A2BBE49C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA88C22-4812-4C4F-BE06-25CAA75C7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -33,24 +34,50 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>manager</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager1</t>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>manager3</t>
+  </si>
+  <si>
+    <t>manager4</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>admin235</t>
+  </si>
+  <si>
+    <t>admin378</t>
+  </si>
+  <si>
+    <t>admin485</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,10 +385,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9043DFF6-9A24-4442-8512-5AA01F2BE9B7}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,16 +437,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>